--- a/model_performance_summary.xlsx
+++ b/model_performance_summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Model</t>
   </si>
@@ -28,6 +28,9 @@
     <t>Precision</t>
   </si>
   <si>
+    <t>Brier Score</t>
+  </si>
+  <si>
     <t>Original CCA (MCAR)</t>
   </si>
   <si>
@@ -62,12 +65,6 @@
   </si>
   <si>
     <t>Synthetic MI (MNAR)</t>
-  </si>
-  <si>
-    <t>Original Baseline (no missingness)</t>
-  </si>
-  <si>
-    <t>Synthetic Baseline (no missingness)</t>
   </si>
 </sst>
 </file>
@@ -425,13 +422,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -444,201 +441,212 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>0.6765</v>
+        <v>0.6785</v>
       </c>
       <c r="C2">
+        <v>0.2387190684133915</v>
+      </c>
+      <c r="D2">
+        <v>0.5774647887323944</v>
+      </c>
+      <c r="E2">
+        <v>0.2107500442327303</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3">
+        <v>0.6785</v>
+      </c>
+      <c r="C3">
+        <v>0.2328966521106259</v>
+      </c>
+      <c r="D3">
+        <v>0.5797101449275363</v>
+      </c>
+      <c r="E3">
+        <v>0.2109762978247412</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4">
+        <v>0.6645</v>
+      </c>
+      <c r="C4">
+        <v>0.05676855895196507</v>
+      </c>
+      <c r="D4">
+        <v>0.6290322580645161</v>
+      </c>
+      <c r="E4">
+        <v>0.21993637786893</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5">
+        <v>0.603</v>
+      </c>
+      <c r="C5">
+        <v>0.4512372634643377</v>
+      </c>
+      <c r="D5">
+        <v>0.4264099037138927</v>
+      </c>
+      <c r="E5">
+        <v>0.2280851042953733</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6">
+        <v>0.6785</v>
+      </c>
+      <c r="C6">
         <v>0.2299854439592431</v>
       </c>
-      <c r="D2">
-        <v>0.572463768115942</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3">
-        <v>0.6745</v>
-      </c>
-      <c r="C3">
-        <v>0.2459970887918486</v>
-      </c>
-      <c r="D3">
-        <v>0.5596026490066225</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4">
-        <v>0.6665</v>
-      </c>
-      <c r="C4">
-        <v>0.07423580786026202</v>
-      </c>
-      <c r="D4">
-        <v>0.6219512195121951</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>0.6155</v>
-      </c>
-      <c r="C5">
-        <v>0.3842794759825328</v>
-      </c>
-      <c r="D5">
-        <v>0.4327868852459016</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>0.667</v>
-      </c>
-      <c r="C6">
-        <v>0.2547307132459971</v>
-      </c>
       <c r="D6">
-        <v>0.5319148936170213</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.5808823529411765</v>
+      </c>
+      <c r="E6">
+        <v>0.2108146697092063</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>0.6755</v>
+        <v>0.678</v>
       </c>
       <c r="C7">
-        <v>0.2387190684133915</v>
+        <v>0.2299854439592431</v>
       </c>
       <c r="D7">
-        <v>0.5655172413793104</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>0.5787545787545788</v>
+      </c>
+      <c r="E7">
+        <v>0.2109486669785924</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>0.655</v>
+        <v>0.653</v>
       </c>
       <c r="C8">
-        <v>0.2852983988355167</v>
+        <v>0.2823871906841339</v>
       </c>
       <c r="D8">
-        <v>0.4962025316455696</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>0.4911392405063291</v>
+      </c>
+      <c r="E8">
+        <v>0.2166008427163471</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>0.642</v>
+        <v>0.658</v>
       </c>
       <c r="C9">
-        <v>0.3493449781659388</v>
+        <v>0.3449781659388647</v>
       </c>
       <c r="D9">
-        <v>0.4715127701375246</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.5031847133757962</v>
+      </c>
+      <c r="E9">
+        <v>0.2144618141319878</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10">
+        <v>0.6725</v>
+      </c>
+      <c r="C10">
+        <v>0.197962154294032</v>
+      </c>
+      <c r="D10">
+        <v>0.5666666666666667</v>
+      </c>
+      <c r="E10">
+        <v>0.2107153936442158</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>0.6685</v>
+        <v>0.6735</v>
       </c>
       <c r="C11">
-        <v>0.2372634643377002</v>
+        <v>0.2532751091703057</v>
       </c>
       <c r="D11">
-        <v>0.5397350993377483</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>0.554140127388535</v>
+      </c>
+      <c r="E11">
+        <v>0.2112636162235279</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>0.6735</v>
+        <v>0.657</v>
       </c>
       <c r="C12">
-        <v>0.2634643377001455</v>
+        <v>0.002911208151382824</v>
       </c>
       <c r="D12">
-        <v>0.551829268292683</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="E12">
+        <v>0.218683870671134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>0.64</v>
+        <v>0.6705</v>
       </c>
       <c r="C13">
-        <v>0.05385735080058224</v>
+        <v>0.2285298398835517</v>
       </c>
       <c r="D13">
-        <v>0.3457943925233645</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>0.595</v>
-      </c>
-      <c r="C14">
-        <v>0.3158660844250364</v>
-      </c>
-      <c r="D14">
-        <v>0.3895870736086176</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>0.6785</v>
-      </c>
-      <c r="C15">
-        <v>0.2241630276564774</v>
-      </c>
-      <c r="D15">
-        <v>0.5833333333333334</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>0.656</v>
-      </c>
-      <c r="C16">
-        <v>0.2256186317321688</v>
-      </c>
-      <c r="D16">
-        <v>0.4983922829581994</v>
+        <v>0.548951048951049</v>
+      </c>
+      <c r="E13">
+        <v>0.2185753851114682</v>
       </c>
     </row>
   </sheetData>
